--- a/画面設計/【画面設計】04_レシピ表示画面（HTML).xlsx
+++ b/画面設計/【画面設計】04_レシピ表示画面（HTML).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>「03_料理検索結果」、「11_ユーザ管理画面(お気に入り料理の管理画面)」でレシピを選択された時に表示される画面。
+レシピを表示のみで編集は不可。お気に入り登録の星についてはクリック時に更新処理を行う。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -428,7 +432,7 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3082,7 +3086,9 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3190,7 +3196,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3220,13 +3226,13 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3366,7 +3372,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3396,10 +3402,10 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="6"/>
@@ -3596,14 +3602,14 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -3628,14 +3634,14 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -3660,30 +3666,30 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J54" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -3760,14 +3766,14 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="24"/>
       <c r="B57" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57" s="48"/>
       <c r="I57" s="48"/>
@@ -3792,30 +3798,30 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="49"/>
       <c r="B58" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="49"/>
       <c r="G58" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H58" s="50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I58" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J58" s="50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
@@ -3976,30 +3982,30 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="49"/>
       <c r="B64" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="49"/>
       <c r="G64" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K64" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
@@ -4076,14 +4082,14 @@
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="24"/>
       <c r="B67" s="48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C67" s="48"/>
       <c r="D67" s="48"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H67" s="48"/>
       <c r="I67" s="48"/>
@@ -4108,30 +4114,30 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="49"/>
       <c r="B68" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="49"/>
       <c r="G68" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J68" s="50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K68" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -30063,7 +30069,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="63"/>
       <c r="B4" s="63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="63"/>
@@ -30091,10 +30097,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="63"/>
